--- a/Summer_O_Compiled.xlsx
+++ b/Summer_O_Compiled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16127\Desktop\Analysis\olympic_medal_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FE1FC9-2B20-4F3D-AC86-01A7C1165CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9924A01E-93B5-4A71-A995-426A9EE2E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24915" yWindow="2085" windowWidth="21615" windowHeight="11385" xr2:uid="{60986723-20E3-4BEE-BB62-7AD6775BCE62}"/>
+    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15840" xr2:uid="{60986723-20E3-4BEE-BB62-7AD6775BCE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yearly!$A$1:$H$1003</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="298">
   <si>
     <t>1</t>
   </si>
@@ -563,9 +562,6 @@
     <t>Belarus</t>
   </si>
   <si>
-    <t>FR Yugoslavia</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
@@ -785,9 +781,6 @@
     <t>Totals (86 NOCs)</t>
   </si>
   <si>
-    <t>Brazil*</t>
-  </si>
-  <si>
     <t>Independent Olympic Athletes</t>
   </si>
   <si>
@@ -833,82 +826,13 @@
     <t>Totals (93 NOCs)</t>
   </si>
   <si>
-    <t>Soviet Union </t>
-  </si>
-  <si>
-    <t>United States </t>
-  </si>
-  <si>
-    <t>Italy </t>
-  </si>
-  <si>
     <t>United Team of Germany </t>
-  </si>
-  <si>
-    <t>Australia </t>
-  </si>
-  <si>
-    <t>Hungary </t>
-  </si>
-  <si>
-    <t>Japan </t>
-  </si>
-  <si>
-    <t>Poland </t>
   </si>
   <si>
     <t>Czechoslovakia </t>
   </si>
   <si>
-    <t>Romania </t>
-  </si>
-  <si>
-    <t>Great Britain </t>
-  </si>
-  <si>
-    <t>Denmark </t>
-  </si>
-  <si>
-    <t>New Zealand </t>
-  </si>
-  <si>
-    <t>Bulgaria </t>
-  </si>
-  <si>
-    <t>Sweden </t>
-  </si>
-  <si>
-    <t>Finland </t>
-  </si>
-  <si>
-    <t>Syria </t>
-  </si>
-  <si>
-    <t>Moldova </t>
-  </si>
-  <si>
-    <t>Kuwait </t>
-  </si>
-  <si>
-    <t>Ivory Coast </t>
-  </si>
-  <si>
-    <t>Grenada </t>
-  </si>
-  <si>
-    <t>Ghana </t>
-  </si>
-  <si>
     <t>Burkina Faso </t>
-  </si>
-  <si>
-    <t>Botswana </t>
-  </si>
-  <si>
-    <t>Mexico </t>
-  </si>
-  <si>
-    <t>Kazakhstan </t>
   </si>
   <si>
     <t>Turkmenistan </t>
@@ -917,97 +841,13 @@
     <t>North Macedonia</t>
   </si>
   <si>
-    <t>Namibia </t>
-  </si>
-  <si>
-    <t>Lithuania </t>
-  </si>
-  <si>
-    <t>Bahrain </t>
-  </si>
-  <si>
-    <t>Nigeria </t>
-  </si>
-  <si>
-    <t>Malaysia </t>
-  </si>
-  <si>
-    <t>Jordan </t>
-  </si>
-  <si>
     <t>San Marino </t>
-  </si>
-  <si>
-    <t>Argentina </t>
-  </si>
-  <si>
-    <t>Mongolia </t>
-  </si>
-  <si>
-    <t>Dominican Republic </t>
-  </si>
-  <si>
-    <t>Turkey </t>
-  </si>
-  <si>
-    <t>Austria </t>
   </si>
   <si>
     <t>Yugoslavia </t>
   </si>
   <si>
-    <t>Pakistan </t>
-  </si>
-  <si>
-    <t>Ethiopia </t>
-  </si>
-  <si>
-    <t>Greece </t>
-  </si>
-  <si>
-    <t>Norway </t>
-  </si>
-  <si>
-    <t>Switzerland </t>
-  </si>
-  <si>
-    <t>France </t>
-  </si>
-  <si>
-    <t>Belgium </t>
-  </si>
-  <si>
-    <t>Iran </t>
-  </si>
-  <si>
-    <t>Netherlands </t>
-  </si>
-  <si>
-    <t>South Africa </t>
-  </si>
-  <si>
-    <t>Egypt </t>
-  </si>
-  <si>
-    <t>Canada </t>
-  </si>
-  <si>
     <t>Formosa </t>
-  </si>
-  <si>
-    <t>India </t>
-  </si>
-  <si>
-    <t>Morocco </t>
-  </si>
-  <si>
-    <t>Portugal </t>
-  </si>
-  <si>
-    <t>Singapore </t>
-  </si>
-  <si>
-    <t>Brazil </t>
   </si>
   <si>
     <t>British West Indies </t>
@@ -1016,130 +856,85 @@
     <t>Iraq </t>
   </si>
   <si>
-    <t>Spain </t>
-  </si>
-  <si>
-    <t>Venezuela </t>
-  </si>
-  <si>
-    <t>China </t>
-  </si>
-  <si>
     <t>ROC </t>
-  </si>
-  <si>
-    <t>Germany </t>
-  </si>
-  <si>
-    <t>Cuba </t>
-  </si>
-  <si>
-    <t>South Korea </t>
   </si>
   <si>
     <t>Czech Republic </t>
   </si>
   <si>
-    <t>Kenya </t>
-  </si>
-  <si>
-    <t>Jamaica </t>
-  </si>
-  <si>
-    <t>Croatia </t>
-  </si>
-  <si>
-    <t>Serbia </t>
-  </si>
-  <si>
-    <t>Slovenia </t>
-  </si>
-  <si>
-    <t>Uzbekistan </t>
-  </si>
-  <si>
     <t>Georgia </t>
-  </si>
-  <si>
-    <t>Chinese Taipei </t>
-  </si>
-  <si>
-    <t>Uganda </t>
-  </si>
-  <si>
-    <t>Ecuador </t>
-  </si>
-  <si>
-    <t>Ireland </t>
-  </si>
-  <si>
-    <t>Israel </t>
-  </si>
-  <si>
-    <t>Qatar </t>
-  </si>
-  <si>
-    <t>Bahamas </t>
-  </si>
-  <si>
-    <t>Kosovo </t>
-  </si>
-  <si>
-    <t>Ukraine </t>
-  </si>
-  <si>
-    <t>Belarus </t>
   </si>
   <si>
     <t>Hong Kong </t>
   </si>
   <si>
-    <t>Philippines </t>
+    <t>NOC Code</t>
   </si>
   <si>
-    <t>Slovakia </t>
+    <t>BWI</t>
   </si>
   <si>
-    <t>Indonesia </t>
+    <t>BUR</t>
   </si>
   <si>
-    <t>Tunisia </t>
+    <t>TCH</t>
   </si>
   <si>
-    <t>Estonia </t>
+    <t>GDR</t>
   </si>
   <si>
-    <t>Fiji </t>
+    <t>YUG</t>
   </si>
   <si>
-    <t>Latvia </t>
+    <t>FRG</t>
   </si>
   <si>
-    <t>Thailand </t>
+    <t>EUA</t>
   </si>
   <si>
-    <t>Bermuda </t>
+    <t>EUN</t>
   </si>
   <si>
-    <t>Puerto Rico </t>
+    <t>TKM</t>
   </si>
   <si>
-    <t>Colombia </t>
+    <t>SMR</t>
   </si>
   <si>
-    <t>Azerbaijan </t>
+    <t>ROC</t>
   </si>
   <si>
-    <t>Armenia </t>
+    <t>CZE</t>
   </si>
   <si>
-    <t>Kyrgyzstan </t>
+    <t>IOP</t>
   </si>
   <si>
-    <t>Saudi Arabia </t>
+    <t>IOA</t>
   </si>
   <si>
-    <t>NOC Code</t>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>RCF</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>AHO</t>
   </si>
 </sst>
 </file>
@@ -2865,12 +2660,141 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Nation/Team</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Column1</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Netherlands Antilles</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>AHO</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Australasia</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>ANZ</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Bohemia</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>BOH</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>British West Indies</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>BWI</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>United Team of Germany</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>EUA</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Unified Team</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>EUN</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>West Germany</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>FRG</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>East Germany</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>GDR</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Russian Empire</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>RU1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Serbia and Montenegro</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>SCG</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Czechoslovakia</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>TCH</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Soviet Union</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>URS</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>South Vietnam</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>VNM</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Yugoslavia</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>YUG</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Mixed team</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>ZZX</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3175,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C9E4FB-56B8-4F7E-A23F-AD9773AF6AD8}">
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="D405" sqref="D405"/>
+    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3196,7 +3120,7 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
@@ -3216,10 +3140,10 @@
         <v>2008</v>
       </c>
       <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
         <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(C2,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -3243,10 +3167,10 @@
         <v>2012</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(C3,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -3378,7 +3302,7 @@
         <v>2008</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>130</v>
@@ -3405,7 +3329,7 @@
         <v>2012</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
         <v>130</v>
@@ -3432,7 +3356,7 @@
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
@@ -3621,7 +3545,7 @@
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -3759,11 +3683,11 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" t="e">
+        <v>69</v>
+      </c>
+      <c r="D22" t="str">
         <f>VLOOKUP(C22,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ARG</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3780,17 +3704,17 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" t="e">
+        <v>69</v>
+      </c>
+      <c r="D23" t="str">
         <f>VLOOKUP(C23,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ARG</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3810,10 +3734,10 @@
         <v>1996</v>
       </c>
       <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
         <v>175</v>
-      </c>
-      <c r="C24" t="s">
-        <v>176</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(C24,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -3837,10 +3761,10 @@
         <v>2000</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(C25,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -3864,10 +3788,10 @@
         <v>2008</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" t="str">
         <f>VLOOKUP(C26,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -3891,10 +3815,10 @@
         <v>2012</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" t="str">
         <f>VLOOKUP(C27,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -3921,7 +3845,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" t="str">
         <f>VLOOKUP(C28,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -3942,17 +3866,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
-      </c>
-      <c r="D29" t="e">
+        <v>175</v>
+      </c>
+      <c r="D29" t="str">
         <f>VLOOKUP(C29,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ARM</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4326,11 +4250,11 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" t="e">
+        <v>44</v>
+      </c>
+      <c r="D43" t="str">
         <f>VLOOKUP(C43,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>AUS</v>
       </c>
       <c r="E43">
         <v>8</v>
@@ -4347,17 +4271,17 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" t="e">
+        <v>44</v>
+      </c>
+      <c r="D44" t="str">
         <f>VLOOKUP(C44,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>AUS</v>
       </c>
       <c r="E44">
         <v>17</v>
@@ -4380,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" t="str">
         <f>VLOOKUP(C45,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -4593,7 +4517,7 @@
         <v>1996</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
         <v>92</v>
@@ -4674,7 +4598,7 @@
         <v>2008</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
         <v>92</v>
@@ -4701,7 +4625,7 @@
         <v>2016</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
         <v>92</v>
@@ -4731,11 +4655,11 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D58" t="e">
+        <v>92</v>
+      </c>
+      <c r="D58" t="str">
         <f>VLOOKUP(C58,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>AUT</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4752,17 +4676,17 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>302</v>
-      </c>
-      <c r="D59" t="e">
+        <v>92</v>
+      </c>
+      <c r="D59" t="str">
         <f>VLOOKUP(C59,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>AUT</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4782,10 +4706,10 @@
         <v>1996</v>
       </c>
       <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" t="s">
         <v>186</v>
-      </c>
-      <c r="C60" t="s">
-        <v>187</v>
       </c>
       <c r="D60" t="str">
         <f>VLOOKUP(C60,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -4812,7 +4736,7 @@
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(C61,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -4836,10 +4760,10 @@
         <v>2004</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(C62,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -4866,7 +4790,7 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(C63,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -4893,7 +4817,7 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" t="str">
         <f>VLOOKUP(C64,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -4920,7 +4844,7 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(C65,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -4941,17 +4865,17 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" t="e">
+        <v>186</v>
+      </c>
+      <c r="D66" t="str">
         <f>VLOOKUP(C66,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>AZE</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5025,7 +4949,7 @@
         <v>1996</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
@@ -5106,7 +5030,7 @@
         <v>2008</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
@@ -5133,7 +5057,7 @@
         <v>2012</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
         <v>62</v>
@@ -5160,7 +5084,7 @@
         <v>2016</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
         <v>62</v>
@@ -5184,17 +5108,17 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
         <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>345</v>
-      </c>
-      <c r="D75" t="e">
+        <v>62</v>
+      </c>
+      <c r="D75" t="str">
         <f>VLOOKUP(C75,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BAH</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -5214,10 +5138,10 @@
         <v>2012</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(C76,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -5244,7 +5168,7 @@
         <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(C77,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -5265,17 +5189,17 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
-      </c>
-      <c r="D78" t="e">
+        <v>234</v>
+      </c>
+      <c r="D78" t="str">
         <f>VLOOKUP(C78,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BRN</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5295,10 +5219,10 @@
         <v>2000</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(C79,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -5481,17 +5405,17 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>348</v>
-      </c>
-      <c r="D86" t="e">
+        <v>172</v>
+      </c>
+      <c r="D86" t="str">
         <f>VLOOKUP(C86,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BLR</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5754,7 +5678,7 @@
         <v>2000</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
         <v>57</v>
@@ -5781,7 +5705,7 @@
         <v>2004</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C97" t="s">
         <v>57</v>
@@ -5835,7 +5759,7 @@
         <v>2012</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
         <v>57</v>
@@ -5892,11 +5816,11 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>310</v>
-      </c>
-      <c r="D101" t="e">
+        <v>57</v>
+      </c>
+      <c r="D101" t="str">
         <f>VLOOKUP(C101,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BEL</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5913,17 +5837,17 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B102" t="s">
         <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
-      </c>
-      <c r="D102" t="e">
+        <v>57</v>
+      </c>
+      <c r="D102" t="str">
         <f>VLOOKUP(C102,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BEL</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -5967,17 +5891,17 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C104" t="s">
-        <v>358</v>
-      </c>
-      <c r="D104" t="e">
+        <v>113</v>
+      </c>
+      <c r="D104" t="str">
         <f>VLOOKUP(C104,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BER</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5997,10 +5921,10 @@
         <v>2012</v>
       </c>
       <c r="B105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" t="s">
         <v>237</v>
-      </c>
-      <c r="C105" t="s">
-        <v>238</v>
       </c>
       <c r="D105" t="str">
         <f>VLOOKUP(C105,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -6021,17 +5945,17 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D106" t="e">
+        <v>237</v>
+      </c>
+      <c r="D106" t="str">
         <f>VLOOKUP(C106,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BOT</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6294,7 +6218,7 @@
         <v>2000</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
         <v>76</v>
@@ -6405,11 +6329,11 @@
         <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>321</v>
-      </c>
-      <c r="D120" t="e">
+        <v>76</v>
+      </c>
+      <c r="D120" t="str">
         <f>VLOOKUP(C120,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BRA</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6426,17 +6350,17 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>321</v>
-      </c>
-      <c r="D121" t="e">
+        <v>76</v>
+      </c>
+      <c r="D121" t="str">
         <f>VLOOKUP(C121,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BRA</v>
       </c>
       <c r="E121">
         <v>7</v>
@@ -6459,7 +6383,7 @@
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="D122" t="str">
         <f>VLOOKUP(C122,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -6486,11 +6410,10 @@
         <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>322</v>
-      </c>
-      <c r="D123" t="e">
-        <f>VLOOKUP(C123,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>269</v>
+      </c>
+      <c r="D123" t="s">
+        <v>276</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6807,7 +6730,7 @@
         <v>2012</v>
       </c>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C135" t="s">
         <v>47</v>
@@ -6834,7 +6757,7 @@
         <v>2016</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C136" t="s">
         <v>47</v>
@@ -6864,11 +6787,11 @@
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>276</v>
-      </c>
-      <c r="D137" t="e">
+        <v>47</v>
+      </c>
+      <c r="D137" t="str">
         <f>VLOOKUP(C137,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BUL</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6885,17 +6808,17 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
-      </c>
-      <c r="D138" t="e">
+        <v>47</v>
+      </c>
+      <c r="D138" t="str">
         <f>VLOOKUP(C138,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>BUL</v>
       </c>
       <c r="E138">
         <v>3</v>
@@ -6912,17 +6835,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" t="e">
-        <f>VLOOKUP(C139,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>263</v>
+      </c>
+      <c r="D139" t="s">
+        <v>277</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6945,7 +6867,7 @@
         <v>161</v>
       </c>
       <c r="C140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -6969,10 +6891,10 @@
         <v>2016</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(C141,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -7050,7 +6972,7 @@
         <v>2000</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C144" t="s">
         <v>97</v>
@@ -7104,7 +7026,7 @@
         <v>2008</v>
       </c>
       <c r="B146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C146" t="s">
         <v>97</v>
@@ -7131,7 +7053,7 @@
         <v>2012</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C147" t="s">
         <v>97</v>
@@ -7485,11 +7407,11 @@
         <v>26</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
-      </c>
-      <c r="D160" t="e">
+        <v>60</v>
+      </c>
+      <c r="D160" t="str">
         <f>VLOOKUP(C160,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CAN</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7506,17 +7428,17 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>315</v>
-      </c>
-      <c r="D161" t="e">
+        <v>60</v>
+      </c>
+      <c r="D161" t="str">
         <f>VLOOKUP(C161,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CAN</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -7590,7 +7512,7 @@
         <v>2000</v>
       </c>
       <c r="B164" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C164" t="s">
         <v>138</v>
@@ -7644,7 +7566,7 @@
         <v>2008</v>
       </c>
       <c r="B166" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
         <v>138</v>
@@ -7884,17 +7806,17 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B175" t="s">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>326</v>
-      </c>
-      <c r="D175" t="e">
+        <v>123</v>
+      </c>
+      <c r="D175" t="str">
         <f>VLOOKUP(C175,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CHN</v>
       </c>
       <c r="E175">
         <v>38</v>
@@ -7917,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D176" t="str">
         <f>VLOOKUP(C176,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -7995,7 +7917,7 @@
         <v>1996</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C179" t="s">
         <v>131</v>
@@ -8022,7 +7944,7 @@
         <v>2000</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
         <v>131</v>
@@ -8130,7 +8052,7 @@
         <v>2016</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C184" t="s">
         <v>131</v>
@@ -8154,17 +8076,17 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
         <v>73</v>
       </c>
       <c r="C185" t="s">
-        <v>339</v>
-      </c>
-      <c r="D185" t="e">
+        <v>131</v>
+      </c>
+      <c r="D185" t="str">
         <f>VLOOKUP(C185,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>TPE</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -8292,7 +8214,7 @@
         <v>2000</v>
       </c>
       <c r="B190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C190" t="s">
         <v>104</v>
@@ -8319,7 +8241,7 @@
         <v>2004</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C191" t="s">
         <v>104</v>
@@ -8346,7 +8268,7 @@
         <v>2008</v>
       </c>
       <c r="B192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C192" t="s">
         <v>104</v>
@@ -8424,17 +8346,17 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B195" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C195" t="s">
-        <v>360</v>
-      </c>
-      <c r="D195" t="e">
+        <v>104</v>
+      </c>
+      <c r="D195" t="str">
         <f>VLOOKUP(C195,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>COL</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8508,7 +8430,7 @@
         <v>2000</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
         <v>139</v>
@@ -8562,7 +8484,7 @@
         <v>1996</v>
       </c>
       <c r="B200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C200" t="s">
         <v>157</v>
@@ -8643,7 +8565,7 @@
         <v>2008</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C203" t="s">
         <v>157</v>
@@ -8721,17 +8643,17 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
       </c>
       <c r="C206" t="s">
-        <v>334</v>
-      </c>
-      <c r="D206" t="e">
+        <v>157</v>
+      </c>
+      <c r="D206" t="str">
         <f>VLOOKUP(C206,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CRO</v>
       </c>
       <c r="E206">
         <v>3</v>
@@ -9072,17 +8994,17 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B219" t="s">
         <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>329</v>
-      </c>
-      <c r="D219" t="e">
+        <v>70</v>
+      </c>
+      <c r="D219" t="str">
         <f>VLOOKUP(C219,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CUB</v>
       </c>
       <c r="E219">
         <v>7</v>
@@ -9102,10 +9024,10 @@
         <v>2012</v>
       </c>
       <c r="B220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D220" t="str">
         <f>VLOOKUP(C220,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -9288,17 +9210,16 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B227" t="s">
         <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>331</v>
-      </c>
-      <c r="D227" t="e">
-        <f>VLOOKUP(C227,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>272</v>
+      </c>
+      <c r="D227" t="s">
+        <v>287</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -9323,9 +9244,8 @@
       <c r="C228" t="s">
         <v>45</v>
       </c>
-      <c r="D228" t="e">
-        <f>VLOOKUP(C228,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D228" t="s">
+        <v>278</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -9350,9 +9270,8 @@
       <c r="C229" t="s">
         <v>45</v>
       </c>
-      <c r="D229" t="e">
-        <f>VLOOKUP(C229,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D229" t="s">
+        <v>278</v>
       </c>
       <c r="E229">
         <v>7</v>
@@ -9377,9 +9296,8 @@
       <c r="C230" t="s">
         <v>45</v>
       </c>
-      <c r="D230" t="e">
-        <f>VLOOKUP(C230,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D230" t="s">
+        <v>278</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -9404,9 +9322,8 @@
       <c r="C231" t="s">
         <v>45</v>
       </c>
-      <c r="D231" t="e">
-        <f>VLOOKUP(C231,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D231" t="s">
+        <v>278</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -9431,9 +9348,8 @@
       <c r="C232" t="s">
         <v>45</v>
       </c>
-      <c r="D232" t="e">
-        <f>VLOOKUP(C232,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D232" t="s">
+        <v>278</v>
       </c>
       <c r="E232">
         <v>2</v>
@@ -9458,9 +9374,8 @@
       <c r="C233" t="s">
         <v>45</v>
       </c>
-      <c r="D233" t="e">
-        <f>VLOOKUP(C233,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D233" t="s">
+        <v>278</v>
       </c>
       <c r="E233">
         <v>3</v>
@@ -9485,9 +9400,8 @@
       <c r="C234" t="s">
         <v>45</v>
       </c>
-      <c r="D234" t="e">
-        <f>VLOOKUP(C234,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D234" t="s">
+        <v>278</v>
       </c>
       <c r="E234">
         <v>4</v>
@@ -9510,11 +9424,10 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>271</v>
-      </c>
-      <c r="D235" t="e">
-        <f>VLOOKUP(C235,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>262</v>
+      </c>
+      <c r="D235" t="s">
+        <v>278</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -9915,11 +9828,11 @@
         <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>274</v>
-      </c>
-      <c r="D250" t="e">
+        <v>54</v>
+      </c>
+      <c r="D250" t="str">
         <f>VLOOKUP(C250,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>DEN</v>
       </c>
       <c r="E250">
         <v>2</v>
@@ -9936,17 +9849,17 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B251" t="s">
         <v>21</v>
       </c>
       <c r="C251" t="s">
-        <v>274</v>
-      </c>
-      <c r="D251" t="e">
+        <v>54</v>
+      </c>
+      <c r="D251" t="str">
         <f>VLOOKUP(C251,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>DEN</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -10047,7 +9960,7 @@
         <v>2008</v>
       </c>
       <c r="B255" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C255" t="s">
         <v>132</v>
@@ -10074,7 +9987,7 @@
         <v>2012</v>
       </c>
       <c r="B256" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C256" t="s">
         <v>132</v>
@@ -10101,7 +10014,7 @@
         <v>2016</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C257" t="s">
         <v>132</v>
@@ -10125,17 +10038,17 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C258" t="s">
-        <v>300</v>
-      </c>
-      <c r="D258" t="e">
+        <v>132</v>
+      </c>
+      <c r="D258" t="str">
         <f>VLOOKUP(C258,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>DOM</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -10160,9 +10073,8 @@
       <c r="C259" t="s">
         <v>85</v>
       </c>
-      <c r="D259" t="e">
-        <f>VLOOKUP(C259,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D259" t="s">
+        <v>279</v>
       </c>
       <c r="E259">
         <v>9</v>
@@ -10187,9 +10099,8 @@
       <c r="C260" t="s">
         <v>85</v>
       </c>
-      <c r="D260" t="e">
-        <f>VLOOKUP(C260,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D260" t="s">
+        <v>279</v>
       </c>
       <c r="E260">
         <v>20</v>
@@ -10214,9 +10125,8 @@
       <c r="C261" t="s">
         <v>85</v>
       </c>
-      <c r="D261" t="e">
-        <f>VLOOKUP(C261,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D261" t="s">
+        <v>279</v>
       </c>
       <c r="E261">
         <v>40</v>
@@ -10241,9 +10151,8 @@
       <c r="C262" t="s">
         <v>85</v>
       </c>
-      <c r="D262" t="e">
-        <f>VLOOKUP(C262,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D262" t="s">
+        <v>279</v>
       </c>
       <c r="E262">
         <v>47</v>
@@ -10268,9 +10177,8 @@
       <c r="C263" t="s">
         <v>85</v>
       </c>
-      <c r="D263" t="e">
-        <f>VLOOKUP(C263,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D263" t="s">
+        <v>279</v>
       </c>
       <c r="E263">
         <v>37</v>
@@ -10293,7 +10201,7 @@
         <v>161</v>
       </c>
       <c r="C264" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D264" t="str">
         <f>VLOOKUP(C264,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -10317,10 +10225,10 @@
         <v>2008</v>
       </c>
       <c r="B265" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C265" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D265" t="str">
         <f>VLOOKUP(C265,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -10341,17 +10249,17 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B266" t="s">
         <v>153</v>
       </c>
       <c r="C266" t="s">
-        <v>341</v>
-      </c>
-      <c r="D266" t="e">
+        <v>178</v>
+      </c>
+      <c r="D266" t="str">
         <f>VLOOKUP(C266,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ECU</v>
       </c>
       <c r="E266">
         <v>2</v>
@@ -10425,7 +10333,7 @@
         <v>2008</v>
       </c>
       <c r="B269" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C269" t="s">
         <v>125</v>
@@ -10452,7 +10360,7 @@
         <v>2012</v>
       </c>
       <c r="B270" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C270" t="s">
         <v>125</v>
@@ -10479,7 +10387,7 @@
         <v>2016</v>
       </c>
       <c r="B271" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C271" t="s">
         <v>125</v>
@@ -10509,11 +10417,11 @@
         <v>25</v>
       </c>
       <c r="C272" t="s">
-        <v>314</v>
-      </c>
-      <c r="D272" t="e">
+        <v>125</v>
+      </c>
+      <c r="D272" t="str">
         <f>VLOOKUP(C272,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>EGY</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -10530,17 +10438,17 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B273" t="s">
         <v>164</v>
       </c>
       <c r="C273" t="s">
-        <v>314</v>
-      </c>
-      <c r="D273" t="e">
+        <v>125</v>
+      </c>
+      <c r="D273" t="str">
         <f>VLOOKUP(C273,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>EGY</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -10560,10 +10468,10 @@
         <v>2004</v>
       </c>
       <c r="B274" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C274" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D274" t="str">
         <f>VLOOKUP(C274,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -10614,7 +10522,7 @@
         <v>2000</v>
       </c>
       <c r="B276" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C276" t="s">
         <v>151</v>
@@ -10641,7 +10549,7 @@
         <v>2004</v>
       </c>
       <c r="B277" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C277" t="s">
         <v>151</v>
@@ -10668,7 +10576,7 @@
         <v>2008</v>
       </c>
       <c r="B278" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C278" t="s">
         <v>151</v>
@@ -10695,7 +10603,7 @@
         <v>2012</v>
       </c>
       <c r="B279" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C279" t="s">
         <v>151</v>
@@ -10722,7 +10630,7 @@
         <v>2016</v>
       </c>
       <c r="B280" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C280" t="s">
         <v>151</v>
@@ -10746,17 +10654,17 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B281" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C281" t="s">
-        <v>354</v>
-      </c>
-      <c r="D281" t="e">
+        <v>151</v>
+      </c>
+      <c r="D281" t="str">
         <f>VLOOKUP(C281,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>EST</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -11076,11 +10984,11 @@
         <v>19</v>
       </c>
       <c r="C293" t="s">
-        <v>305</v>
-      </c>
-      <c r="D293" t="e">
+        <v>63</v>
+      </c>
+      <c r="D293" t="str">
         <f>VLOOKUP(C293,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ETH</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11097,17 +11005,17 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B294" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C294" t="s">
-        <v>305</v>
-      </c>
-      <c r="D294" t="e">
+        <v>63</v>
+      </c>
+      <c r="D294" t="str">
         <f>VLOOKUP(C294,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ETH</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11130,7 +11038,7 @@
         <v>164</v>
       </c>
       <c r="C295" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D295" t="str">
         <f>VLOOKUP(C295,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -11151,17 +11059,17 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B296" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C296" t="s">
-        <v>355</v>
-      </c>
-      <c r="D296" t="e">
+        <v>247</v>
+      </c>
+      <c r="D296" t="str">
         <f>VLOOKUP(C296,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>FIJ</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11451,7 +11359,7 @@
         <v>2004</v>
       </c>
       <c r="B307" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C307" t="s">
         <v>48</v>
@@ -11505,7 +11413,7 @@
         <v>2012</v>
       </c>
       <c r="B309" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C309" t="s">
         <v>48</v>
@@ -11532,7 +11440,7 @@
         <v>2016</v>
       </c>
       <c r="B310" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C310" t="s">
         <v>48</v>
@@ -11562,11 +11470,11 @@
         <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>278</v>
-      </c>
-      <c r="D311" t="e">
+        <v>48</v>
+      </c>
+      <c r="D311" t="str">
         <f>VLOOKUP(C311,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>FIN</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -11583,17 +11491,17 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B312" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C312" t="s">
-        <v>278</v>
-      </c>
-      <c r="D312" t="e">
+        <v>48</v>
+      </c>
+      <c r="D312" t="str">
         <f>VLOOKUP(C312,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>FIN</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -11616,11 +11524,10 @@
         <v>26</v>
       </c>
       <c r="C313" t="s">
-        <v>316</v>
-      </c>
-      <c r="D313" t="e">
-        <f>VLOOKUP(C313,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>268</v>
+      </c>
+      <c r="D313" t="s">
+        <v>294</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -11643,11 +11550,10 @@
         <v>28</v>
       </c>
       <c r="C314" t="s">
-        <v>173</v>
-      </c>
-      <c r="D314" t="e">
-        <f>VLOOKUP(C314,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="D314" t="s">
+        <v>280</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -11670,11 +11576,10 @@
         <v>144</v>
       </c>
       <c r="C315" t="s">
-        <v>173</v>
-      </c>
-      <c r="D315" t="e">
-        <f>VLOOKUP(C315,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="D315" t="s">
+        <v>280</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -12075,11 +11980,11 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>309</v>
-      </c>
-      <c r="D330" t="e">
+        <v>58</v>
+      </c>
+      <c r="D330" t="str">
         <f>VLOOKUP(C330,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>FRA</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -12096,17 +12001,17 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>309</v>
-      </c>
-      <c r="D331" t="e">
+        <v>58</v>
+      </c>
+      <c r="D331" t="str">
         <f>VLOOKUP(C331,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>FRA</v>
       </c>
       <c r="E331">
         <v>10</v>
@@ -12126,10 +12031,10 @@
         <v>2012</v>
       </c>
       <c r="B332" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C332" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D332" t="str">
         <f>VLOOKUP(C332,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -12153,10 +12058,10 @@
         <v>1996</v>
       </c>
       <c r="B333" t="s">
+        <v>188</v>
+      </c>
+      <c r="C333" t="s">
         <v>189</v>
-      </c>
-      <c r="C333" t="s">
-        <v>190</v>
       </c>
       <c r="D333" t="str">
         <f>VLOOKUP(C333,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -12180,10 +12085,10 @@
         <v>2000</v>
       </c>
       <c r="B334" t="s">
+        <v>188</v>
+      </c>
+      <c r="C334" t="s">
         <v>189</v>
-      </c>
-      <c r="C334" t="s">
-        <v>190</v>
       </c>
       <c r="D334" t="str">
         <f>VLOOKUP(C334,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -12210,7 +12115,7 @@
         <v>26</v>
       </c>
       <c r="C335" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D335" t="str">
         <f>VLOOKUP(C335,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -12237,7 +12142,7 @@
         <v>24</v>
       </c>
       <c r="C336" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D336" t="str">
         <f>VLOOKUP(C336,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -12264,7 +12169,7 @@
         <v>129</v>
       </c>
       <c r="C337" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D337" t="str">
         <f>VLOOKUP(C337,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -12291,7 +12196,7 @@
         <v>153</v>
       </c>
       <c r="C338" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D338" t="str">
         <f>VLOOKUP(C338,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -12312,17 +12217,16 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B339" t="s">
         <v>93</v>
       </c>
       <c r="C339" t="s">
-        <v>338</v>
-      </c>
-      <c r="D339" t="e">
-        <f>VLOOKUP(C339,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>273</v>
+      </c>
+      <c r="D339" t="s">
+        <v>295</v>
       </c>
       <c r="E339">
         <v>2</v>
@@ -12528,17 +12432,17 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B347" t="s">
         <v>8</v>
       </c>
       <c r="C347" t="s">
-        <v>328</v>
-      </c>
-      <c r="D347" t="e">
+        <v>149</v>
+      </c>
+      <c r="D347" t="str">
         <f>VLOOKUP(C347,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GER</v>
       </c>
       <c r="E347">
         <v>10</v>
@@ -12642,11 +12546,11 @@
         <v>26</v>
       </c>
       <c r="C351" t="s">
-        <v>284</v>
-      </c>
-      <c r="D351" t="e">
+        <v>77</v>
+      </c>
+      <c r="D351" t="str">
         <f>VLOOKUP(C351,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GHA</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -12663,17 +12567,17 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B352" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C352" t="s">
-        <v>284</v>
-      </c>
-      <c r="D352" t="e">
+        <v>77</v>
+      </c>
+      <c r="D352" t="str">
         <f>VLOOKUP(C352,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GHA</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -13047,11 +12951,11 @@
         <v>11</v>
       </c>
       <c r="C366" t="s">
-        <v>273</v>
-      </c>
-      <c r="D366" t="e">
+        <v>46</v>
+      </c>
+      <c r="D366" t="str">
         <f>VLOOKUP(C366,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GBR</v>
       </c>
       <c r="E366">
         <v>2</v>
@@ -13068,17 +12972,17 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B367" t="s">
         <v>3</v>
       </c>
       <c r="C367" t="s">
-        <v>273</v>
-      </c>
-      <c r="D367" t="e">
+        <v>46</v>
+      </c>
+      <c r="D367" t="str">
         <f>VLOOKUP(C367,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GBR</v>
       </c>
       <c r="E367">
         <v>22</v>
@@ -13101,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="C368" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D368" t="str">
         <f>VLOOKUP(C368,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -13341,7 +13245,7 @@
         <v>2008</v>
       </c>
       <c r="B377" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C377" t="s">
         <v>100</v>
@@ -13368,7 +13272,7 @@
         <v>2012</v>
       </c>
       <c r="B378" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C378" t="s">
         <v>100</v>
@@ -13425,11 +13329,11 @@
         <v>19</v>
       </c>
       <c r="C380" t="s">
-        <v>306</v>
-      </c>
-      <c r="D380" t="e">
+        <v>100</v>
+      </c>
+      <c r="D380" t="str">
         <f>VLOOKUP(C380,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GRE</v>
       </c>
       <c r="E380">
         <v>1</v>
@@ -13446,17 +13350,17 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B381" t="s">
         <v>95</v>
       </c>
       <c r="C381" t="s">
-        <v>306</v>
-      </c>
-      <c r="D381" t="e">
+        <v>100</v>
+      </c>
+      <c r="D381" t="str">
         <f>VLOOKUP(C381,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GRE</v>
       </c>
       <c r="E381">
         <v>2</v>
@@ -13479,7 +13383,7 @@
         <v>14</v>
       </c>
       <c r="C382" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D382" t="str">
         <f>VLOOKUP(C382,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -13503,10 +13407,10 @@
         <v>2012</v>
       </c>
       <c r="B383" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C383" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D383" t="str">
         <f>VLOOKUP(C383,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -13530,10 +13434,10 @@
         <v>2016</v>
       </c>
       <c r="B384" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C384" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D384" t="str">
         <f>VLOOKUP(C384,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -13554,17 +13458,17 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B385" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C385" t="s">
-        <v>283</v>
-      </c>
-      <c r="D385" t="e">
+        <v>235</v>
+      </c>
+      <c r="D385" t="str">
         <f>VLOOKUP(C385,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>GRN</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -13584,10 +13488,10 @@
         <v>2012</v>
       </c>
       <c r="B386" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C386" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D386" t="str">
         <f>VLOOKUP(C386,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -13641,11 +13545,10 @@
         <v>161</v>
       </c>
       <c r="C388" t="s">
-        <v>180</v>
-      </c>
-      <c r="D388" t="e">
-        <f>VLOOKUP(C388,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>179</v>
+      </c>
+      <c r="D388" t="s">
+        <v>290</v>
       </c>
       <c r="E388">
         <v>1</v>
@@ -13665,14 +13568,13 @@
         <v>2004</v>
       </c>
       <c r="B389" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C389" t="s">
-        <v>180</v>
-      </c>
-      <c r="D389" t="e">
-        <f>VLOOKUP(C389,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>179</v>
+      </c>
+      <c r="D389" t="s">
+        <v>290</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -13692,14 +13594,13 @@
         <v>2012</v>
       </c>
       <c r="B390" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C390" t="s">
-        <v>180</v>
-      </c>
-      <c r="D390" t="e">
-        <f>VLOOKUP(C390,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>179</v>
+      </c>
+      <c r="D390" t="s">
+        <v>290</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -13716,17 +13617,16 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B391" t="s">
         <v>161</v>
       </c>
       <c r="C391" t="s">
-        <v>349</v>
-      </c>
-      <c r="D391" t="e">
-        <f>VLOOKUP(C391,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>274</v>
+      </c>
+      <c r="D391" t="s">
+        <v>290</v>
       </c>
       <c r="E391">
         <v>1</v>
@@ -14100,11 +14000,11 @@
         <v>6</v>
       </c>
       <c r="C405" t="s">
-        <v>268</v>
-      </c>
-      <c r="D405" t="e">
+        <v>42</v>
+      </c>
+      <c r="D405" t="str">
         <f>VLOOKUP(C405,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>HUN</v>
       </c>
       <c r="E405">
         <v>6</v>
@@ -14121,17 +14021,17 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B406" t="s">
         <v>14</v>
       </c>
       <c r="C406" t="s">
-        <v>268</v>
-      </c>
-      <c r="D406" t="e">
+        <v>42</v>
+      </c>
+      <c r="D406" t="str">
         <f>VLOOKUP(C406,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>HUN</v>
       </c>
       <c r="E406">
         <v>6</v>
@@ -14178,7 +14078,7 @@
         <v>2000</v>
       </c>
       <c r="B408" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C408" t="s">
         <v>133</v>
@@ -14205,7 +14105,7 @@
         <v>2008</v>
       </c>
       <c r="B409" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C409" t="s">
         <v>133</v>
@@ -14232,14 +14132,13 @@
         <v>2016</v>
       </c>
       <c r="B410" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C410" t="s">
-        <v>248</v>
-      </c>
-      <c r="D410" t="e">
-        <f>VLOOKUP(C410,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="D410" t="s">
+        <v>289</v>
       </c>
       <c r="E410">
         <v>1</v>
@@ -14264,9 +14163,8 @@
       <c r="C411" t="s">
         <v>158</v>
       </c>
-      <c r="D411" t="e">
-        <f>VLOOKUP(C411,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D411" t="s">
+        <v>288</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -14394,7 +14292,7 @@
         <v>1996</v>
       </c>
       <c r="B416" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C416" t="s">
         <v>64</v>
@@ -14421,7 +14319,7 @@
         <v>2000</v>
       </c>
       <c r="B417" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C417" t="s">
         <v>64</v>
@@ -14448,7 +14346,7 @@
         <v>2004</v>
       </c>
       <c r="B418" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C418" t="s">
         <v>64</v>
@@ -14475,7 +14373,7 @@
         <v>2008</v>
       </c>
       <c r="B419" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C419" t="s">
         <v>64</v>
@@ -14502,7 +14400,7 @@
         <v>2012</v>
       </c>
       <c r="B420" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C420" t="s">
         <v>64</v>
@@ -14529,7 +14427,7 @@
         <v>2016</v>
       </c>
       <c r="B421" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C421" t="s">
         <v>64</v>
@@ -14559,11 +14457,11 @@
         <v>26</v>
       </c>
       <c r="C422" t="s">
-        <v>317</v>
-      </c>
-      <c r="D422" t="e">
+        <v>64</v>
+      </c>
+      <c r="D422" t="str">
         <f>VLOOKUP(C422,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>IND</v>
       </c>
       <c r="E422">
         <v>0</v>
@@ -14580,17 +14478,17 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B423" t="s">
         <v>159</v>
       </c>
       <c r="C423" t="s">
-        <v>317</v>
-      </c>
-      <c r="D423" t="e">
+        <v>64</v>
+      </c>
+      <c r="D423" t="str">
         <f>VLOOKUP(C423,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>IND</v>
       </c>
       <c r="E423">
         <v>1</v>
@@ -14772,7 +14670,7 @@
         <v>2012</v>
       </c>
       <c r="B430" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C430" t="s">
         <v>140</v>
@@ -14823,17 +14721,17 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B432" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C432" t="s">
-        <v>352</v>
-      </c>
-      <c r="D432" t="e">
+        <v>140</v>
+      </c>
+      <c r="D432" t="str">
         <f>VLOOKUP(C432,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>INA</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -15180,11 +15078,11 @@
         <v>23</v>
       </c>
       <c r="C445" t="s">
-        <v>311</v>
-      </c>
-      <c r="D445" t="e">
+        <v>74</v>
+      </c>
+      <c r="D445" t="str">
         <f>VLOOKUP(C445,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>IRI</v>
       </c>
       <c r="E445">
         <v>0</v>
@@ -15201,17 +15099,17 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B446" t="s">
         <v>23</v>
       </c>
       <c r="C446" t="s">
-        <v>311</v>
-      </c>
-      <c r="D446" t="e">
+        <v>74</v>
+      </c>
+      <c r="D446" t="str">
         <f>VLOOKUP(C446,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>IRI</v>
       </c>
       <c r="E446">
         <v>3</v>
@@ -15234,11 +15132,10 @@
         <v>28</v>
       </c>
       <c r="C447" t="s">
-        <v>323</v>
-      </c>
-      <c r="D447" t="e">
-        <f>VLOOKUP(C447,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>270</v>
+      </c>
+      <c r="D447" t="s">
+        <v>293</v>
       </c>
       <c r="E447">
         <v>0</v>
@@ -15393,7 +15290,7 @@
         <v>2000</v>
       </c>
       <c r="B453" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C453" t="s">
         <v>78</v>
@@ -15420,7 +15317,7 @@
         <v>2008</v>
       </c>
       <c r="B454" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C454" t="s">
         <v>78</v>
@@ -15474,7 +15371,7 @@
         <v>2016</v>
       </c>
       <c r="B456" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C456" t="s">
         <v>78</v>
@@ -15498,17 +15395,17 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B457" t="s">
         <v>27</v>
       </c>
       <c r="C457" t="s">
-        <v>342</v>
-      </c>
-      <c r="D457" t="e">
+        <v>78</v>
+      </c>
+      <c r="D457" t="str">
         <f>VLOOKUP(C457,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>IRL</v>
       </c>
       <c r="E457">
         <v>2</v>
@@ -15555,7 +15452,7 @@
         <v>1996</v>
       </c>
       <c r="B459" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C459" t="s">
         <v>160</v>
@@ -15582,7 +15479,7 @@
         <v>2000</v>
       </c>
       <c r="B460" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C460" t="s">
         <v>160</v>
@@ -15636,7 +15533,7 @@
         <v>2008</v>
       </c>
       <c r="B462" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C462" t="s">
         <v>160</v>
@@ -15663,7 +15560,7 @@
         <v>2016</v>
       </c>
       <c r="B463" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C463" t="s">
         <v>160</v>
@@ -15687,17 +15584,17 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B464" t="s">
         <v>27</v>
       </c>
       <c r="C464" t="s">
-        <v>343</v>
-      </c>
-      <c r="D464" t="e">
+        <v>160</v>
+      </c>
+      <c r="D464" t="str">
         <f>VLOOKUP(C464,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ISR</v>
       </c>
       <c r="E464">
         <v>2</v>
@@ -16098,11 +15995,11 @@
         <v>2</v>
       </c>
       <c r="C479" t="s">
-        <v>265</v>
-      </c>
-      <c r="D479" t="e">
+        <v>41</v>
+      </c>
+      <c r="D479" t="str">
         <f>VLOOKUP(C479,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ITA</v>
       </c>
       <c r="E479">
         <v>13</v>
@@ -16119,17 +16016,17 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B480" t="s">
         <v>9</v>
       </c>
       <c r="C480" t="s">
-        <v>265</v>
-      </c>
-      <c r="D480" t="e">
+        <v>41</v>
+      </c>
+      <c r="D480" t="str">
         <f>VLOOKUP(C480,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ITA</v>
       </c>
       <c r="E480">
         <v>10</v>
@@ -16176,7 +16073,7 @@
         <v>2016</v>
       </c>
       <c r="B482" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C482" t="s">
         <v>126</v>
@@ -16200,17 +16097,17 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B483" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C483" t="s">
-        <v>282</v>
-      </c>
-      <c r="D483" t="e">
+        <v>126</v>
+      </c>
+      <c r="D483" t="str">
         <f>VLOOKUP(C483,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CIV</v>
       </c>
       <c r="E483">
         <v>0</v>
@@ -16578,17 +16475,17 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B497" t="s">
         <v>19</v>
       </c>
       <c r="C497" t="s">
-        <v>333</v>
-      </c>
-      <c r="D497" t="e">
+        <v>98</v>
+      </c>
+      <c r="D497" t="str">
         <f>VLOOKUP(C497,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>JAM</v>
       </c>
       <c r="E497">
         <v>4</v>
@@ -16935,11 +16832,11 @@
         <v>7</v>
       </c>
       <c r="C510" t="s">
-        <v>269</v>
-      </c>
-      <c r="D510" t="e">
+        <v>84</v>
+      </c>
+      <c r="D510" t="str">
         <f>VLOOKUP(C510,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>JPN</v>
       </c>
       <c r="E510">
         <v>4</v>
@@ -16956,17 +16853,17 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B511" t="s">
         <v>2</v>
       </c>
       <c r="C511" t="s">
-        <v>269</v>
-      </c>
-      <c r="D511" t="e">
+        <v>84</v>
+      </c>
+      <c r="D511" t="str">
         <f>VLOOKUP(C511,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>JPN</v>
       </c>
       <c r="E511">
         <v>27</v>
@@ -17016,7 +16913,7 @@
         <v>164</v>
       </c>
       <c r="C513" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D513" t="str">
         <f>VLOOKUP(C513,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -17037,17 +16934,17 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B514" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C514" t="s">
-        <v>296</v>
-      </c>
-      <c r="D514" t="e">
+        <v>248</v>
+      </c>
+      <c r="D514" t="str">
         <f>VLOOKUP(C514,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>JOR</v>
       </c>
       <c r="E514">
         <v>0</v>
@@ -17226,17 +17123,17 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B521" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C521" t="s">
-        <v>288</v>
-      </c>
-      <c r="D521" t="e">
+        <v>171</v>
+      </c>
+      <c r="D521" t="str">
         <f>VLOOKUP(C521,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>KAZ</v>
       </c>
       <c r="E521">
         <v>0</v>
@@ -17577,17 +17474,17 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B534" t="s">
         <v>55</v>
       </c>
       <c r="C534" t="s">
-        <v>332</v>
-      </c>
-      <c r="D534" t="e">
+        <v>79</v>
+      </c>
+      <c r="D534" t="str">
         <f>VLOOKUP(C534,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>KEN</v>
       </c>
       <c r="E534">
         <v>4</v>
@@ -17610,7 +17507,7 @@
         <v>164</v>
       </c>
       <c r="C535" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D535" t="str">
         <f>VLOOKUP(C535,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -17631,17 +17528,17 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B536" t="s">
         <v>99</v>
       </c>
       <c r="C536" t="s">
-        <v>346</v>
-      </c>
-      <c r="D536" t="e">
+        <v>249</v>
+      </c>
+      <c r="D536" t="str">
         <f>VLOOKUP(C536,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>KOS</v>
       </c>
       <c r="E536">
         <v>2</v>
@@ -17661,10 +17558,10 @@
         <v>2000</v>
       </c>
       <c r="B537" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C537" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D537" t="str">
         <f>VLOOKUP(C537,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -17688,10 +17585,10 @@
         <v>2012</v>
       </c>
       <c r="B538" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C538" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D538" t="str">
         <f>VLOOKUP(C538,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -17712,17 +17609,17 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B539" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C539" t="s">
-        <v>281</v>
-      </c>
-      <c r="D539" t="e">
+        <v>203</v>
+      </c>
+      <c r="D539" t="str">
         <f>VLOOKUP(C539,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>KUW</v>
       </c>
       <c r="E539">
         <v>0</v>
@@ -17742,10 +17639,10 @@
         <v>2000</v>
       </c>
       <c r="B540" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C540" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D540" t="str">
         <f>VLOOKUP(C540,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -17769,10 +17666,10 @@
         <v>2008</v>
       </c>
       <c r="B541" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C541" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D541" t="str">
         <f>VLOOKUP(C541,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -17793,17 +17690,17 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B542" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C542" t="s">
-        <v>363</v>
-      </c>
-      <c r="D542" t="e">
+        <v>204</v>
+      </c>
+      <c r="D542" t="str">
         <f>VLOOKUP(C542,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>KGZ</v>
       </c>
       <c r="E542">
         <v>0</v>
@@ -17850,7 +17747,7 @@
         <v>1996</v>
       </c>
       <c r="B544" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C544" t="s">
         <v>154</v>
@@ -17904,7 +17801,7 @@
         <v>2004</v>
       </c>
       <c r="B546" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C546" t="s">
         <v>154</v>
@@ -17982,17 +17879,17 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B549" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C549" t="s">
-        <v>356</v>
-      </c>
-      <c r="D549" t="e">
+        <v>154</v>
+      </c>
+      <c r="D549" t="str">
         <f>VLOOKUP(C549,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>LAT</v>
       </c>
       <c r="E549">
         <v>1</v>
@@ -18093,7 +17990,7 @@
         <v>1996</v>
       </c>
       <c r="B553" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C553" t="s">
         <v>152</v>
@@ -18147,7 +18044,7 @@
         <v>2004</v>
       </c>
       <c r="B555" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C555" t="s">
         <v>152</v>
@@ -18174,7 +18071,7 @@
         <v>2008</v>
       </c>
       <c r="B556" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C556" t="s">
         <v>152</v>
@@ -18228,7 +18125,7 @@
         <v>2016</v>
       </c>
       <c r="B558" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C558" t="s">
         <v>152</v>
@@ -18252,17 +18149,17 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B559" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C559" t="s">
-        <v>292</v>
-      </c>
-      <c r="D559" t="e">
+        <v>152</v>
+      </c>
+      <c r="D559" t="str">
         <f>VLOOKUP(C559,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>LTU</v>
       </c>
       <c r="E559">
         <v>0</v>
@@ -18282,14 +18179,13 @@
         <v>2000</v>
       </c>
       <c r="B560" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C560" t="s">
-        <v>206</v>
-      </c>
-      <c r="D560" t="e">
-        <f>VLOOKUP(C560,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>205</v>
+      </c>
+      <c r="D560" t="s">
+        <v>291</v>
       </c>
       <c r="E560">
         <v>0</v>
@@ -18336,7 +18232,7 @@
         <v>1996</v>
       </c>
       <c r="B562" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C562" t="s">
         <v>165</v>
@@ -18363,7 +18259,7 @@
         <v>2008</v>
       </c>
       <c r="B563" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C563" t="s">
         <v>165</v>
@@ -18390,7 +18286,7 @@
         <v>2012</v>
       </c>
       <c r="B564" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C564" t="s">
         <v>165</v>
@@ -18417,7 +18313,7 @@
         <v>2016</v>
       </c>
       <c r="B565" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C565" t="s">
         <v>165</v>
@@ -18441,17 +18337,17 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B566" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C566" t="s">
-        <v>295</v>
-      </c>
-      <c r="D566" t="e">
+        <v>165</v>
+      </c>
+      <c r="D566" t="str">
         <f>VLOOKUP(C566,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MAS</v>
       </c>
       <c r="E566">
         <v>0</v>
@@ -18471,10 +18367,10 @@
         <v>2008</v>
       </c>
       <c r="B567" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C567" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D567" t="str">
         <f>VLOOKUP(C567,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -18687,7 +18583,7 @@
         <v>1996</v>
       </c>
       <c r="B575" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C575" t="s">
         <v>80</v>
@@ -18741,7 +18637,7 @@
         <v>2004</v>
       </c>
       <c r="B577" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C577" t="s">
         <v>80</v>
@@ -18822,7 +18718,7 @@
         <v>2016</v>
       </c>
       <c r="B580" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C580" t="s">
         <v>80</v>
@@ -18852,11 +18748,11 @@
         <v>28</v>
       </c>
       <c r="C581" t="s">
-        <v>287</v>
-      </c>
-      <c r="D581" t="e">
+        <v>80</v>
+      </c>
+      <c r="D581" t="str">
         <f>VLOOKUP(C581,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MEX</v>
       </c>
       <c r="E581">
         <v>0</v>
@@ -18873,17 +18769,17 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
+        <v>255</v>
+      </c>
+      <c r="B582" t="s">
         <v>257</v>
       </c>
-      <c r="B582" t="s">
-        <v>259</v>
-      </c>
       <c r="C582" t="s">
-        <v>287</v>
-      </c>
-      <c r="D582" t="e">
+        <v>80</v>
+      </c>
+      <c r="D582" t="str">
         <f>VLOOKUP(C582,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MEX</v>
       </c>
       <c r="E582">
         <v>0</v>
@@ -18930,10 +18826,10 @@
         <v>1996</v>
       </c>
       <c r="B584" t="s">
+        <v>182</v>
+      </c>
+      <c r="C584" t="s">
         <v>183</v>
-      </c>
-      <c r="C584" t="s">
-        <v>184</v>
       </c>
       <c r="D584" t="str">
         <f>VLOOKUP(C584,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -18957,10 +18853,10 @@
         <v>2000</v>
       </c>
       <c r="B585" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C585" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D585" t="str">
         <f>VLOOKUP(C585,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -18984,10 +18880,10 @@
         <v>2008</v>
       </c>
       <c r="B586" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C586" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D586" t="str">
         <f>VLOOKUP(C586,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -19008,17 +18904,17 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B587" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C587" t="s">
-        <v>280</v>
-      </c>
-      <c r="D587" t="e">
+        <v>183</v>
+      </c>
+      <c r="D587" t="str">
         <f>VLOOKUP(C587,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MDA</v>
       </c>
       <c r="E587">
         <v>0</v>
@@ -19200,7 +19096,7 @@
         <v>1996</v>
       </c>
       <c r="B594" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C594" t="s">
         <v>94</v>
@@ -19227,7 +19123,7 @@
         <v>2004</v>
       </c>
       <c r="B595" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C595" t="s">
         <v>94</v>
@@ -19281,7 +19177,7 @@
         <v>2012</v>
       </c>
       <c r="B597" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C597" t="s">
         <v>94</v>
@@ -19308,7 +19204,7 @@
         <v>2016</v>
       </c>
       <c r="B598" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C598" t="s">
         <v>94</v>
@@ -19332,17 +19228,17 @@
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B599" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C599" t="s">
-        <v>299</v>
-      </c>
-      <c r="D599" t="e">
+        <v>94</v>
+      </c>
+      <c r="D599" t="str">
         <f>VLOOKUP(C599,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MGL</v>
       </c>
       <c r="E599">
         <v>0</v>
@@ -19362,10 +19258,10 @@
         <v>2012</v>
       </c>
       <c r="B600" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C600" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D600" t="str">
         <f>VLOOKUP(C600,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -19470,7 +19366,7 @@
         <v>1996</v>
       </c>
       <c r="B604" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C604" t="s">
         <v>124</v>
@@ -19497,7 +19393,7 @@
         <v>2000</v>
       </c>
       <c r="B605" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C605" t="s">
         <v>124</v>
@@ -19551,7 +19447,7 @@
         <v>2008</v>
       </c>
       <c r="B607" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C607" t="s">
         <v>124</v>
@@ -19578,7 +19474,7 @@
         <v>2012</v>
       </c>
       <c r="B608" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C608" t="s">
         <v>124</v>
@@ -19605,7 +19501,7 @@
         <v>2016</v>
       </c>
       <c r="B609" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C609" t="s">
         <v>124</v>
@@ -19635,11 +19531,11 @@
         <v>26</v>
       </c>
       <c r="C610" t="s">
-        <v>318</v>
-      </c>
-      <c r="D610" t="e">
+        <v>124</v>
+      </c>
+      <c r="D610" t="str">
         <f>VLOOKUP(C610,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MAR</v>
       </c>
       <c r="E610">
         <v>0</v>
@@ -19656,17 +19552,17 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B611" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C611" t="s">
-        <v>318</v>
-      </c>
-      <c r="D611" t="e">
+        <v>124</v>
+      </c>
+      <c r="D611" t="str">
         <f>VLOOKUP(C611,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MAR</v>
       </c>
       <c r="E611">
         <v>1</v>
@@ -19686,10 +19582,10 @@
         <v>1996</v>
       </c>
       <c r="B612" t="s">
+        <v>190</v>
+      </c>
+      <c r="C612" t="s">
         <v>191</v>
-      </c>
-      <c r="C612" t="s">
-        <v>192</v>
       </c>
       <c r="D612" t="str">
         <f>VLOOKUP(C612,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -19713,10 +19609,10 @@
         <v>2000</v>
       </c>
       <c r="B613" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C613" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D613" t="str">
         <f>VLOOKUP(C613,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -19767,7 +19663,7 @@
         <v>1996</v>
       </c>
       <c r="B615" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C615" t="s">
         <v>155</v>
@@ -19791,17 +19687,17 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B616" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C616" t="s">
-        <v>291</v>
-      </c>
-      <c r="D616" t="e">
+        <v>155</v>
+      </c>
+      <c r="D616" t="str">
         <f>VLOOKUP(C616,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NAM</v>
       </c>
       <c r="E616">
         <v>0</v>
@@ -20204,9 +20100,8 @@
       <c r="C631" t="s">
         <v>141</v>
       </c>
-      <c r="D631" t="e">
-        <f>VLOOKUP(C631,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D631" t="s">
+        <v>297</v>
       </c>
       <c r="E631">
         <v>0</v>
@@ -20229,11 +20124,11 @@
         <v>24</v>
       </c>
       <c r="C632" t="s">
-        <v>312</v>
-      </c>
-      <c r="D632" t="e">
+        <v>51</v>
+      </c>
+      <c r="D632" t="str">
         <f>VLOOKUP(C632,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NED</v>
       </c>
       <c r="E632">
         <v>0</v>
@@ -20250,17 +20145,17 @@
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B633" t="s">
         <v>6</v>
       </c>
       <c r="C633" t="s">
-        <v>312</v>
-      </c>
-      <c r="D633" t="e">
+        <v>51</v>
+      </c>
+      <c r="D633" t="str">
         <f>VLOOKUP(C633,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NED</v>
       </c>
       <c r="E633">
         <v>10</v>
@@ -20634,11 +20529,11 @@
         <v>13</v>
       </c>
       <c r="C647" t="s">
-        <v>275</v>
-      </c>
-      <c r="D647" t="e">
+        <v>49</v>
+      </c>
+      <c r="D647" t="str">
         <f>VLOOKUP(C647,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NZL</v>
       </c>
       <c r="E647">
         <v>2</v>
@@ -20655,17 +20550,17 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B648" t="s">
         <v>12</v>
       </c>
       <c r="C648" t="s">
-        <v>275</v>
-      </c>
-      <c r="D648" t="e">
+        <v>49</v>
+      </c>
+      <c r="D648" t="str">
         <f>VLOOKUP(C648,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NZL</v>
       </c>
       <c r="E648">
         <v>7</v>
@@ -20712,7 +20607,7 @@
         <v>2016</v>
       </c>
       <c r="B650" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C650" t="s">
         <v>107</v>
@@ -20901,7 +20796,7 @@
         <v>2004</v>
       </c>
       <c r="B657" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C657" t="s">
         <v>81</v>
@@ -20928,7 +20823,7 @@
         <v>2008</v>
       </c>
       <c r="B658" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C658" t="s">
         <v>81</v>
@@ -20955,7 +20850,7 @@
         <v>2016</v>
       </c>
       <c r="B659" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C659" t="s">
         <v>81</v>
@@ -20979,17 +20874,17 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B660" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C660" t="s">
-        <v>294</v>
-      </c>
-      <c r="D660" t="e">
+        <v>81</v>
+      </c>
+      <c r="D660" t="str">
         <f>VLOOKUP(C660,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NGR</v>
       </c>
       <c r="E660">
         <v>0</v>
@@ -21144,7 +21039,7 @@
         <v>2000</v>
       </c>
       <c r="B666" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C666" t="s">
         <v>103</v>
@@ -21171,7 +21066,7 @@
         <v>2004</v>
       </c>
       <c r="B667" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C667" t="s">
         <v>103</v>
@@ -21276,13 +21171,13 @@
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B671" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C671" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="D671" t="str">
         <f>VLOOKUP(C671,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -21603,7 +21498,7 @@
         <v>2016</v>
       </c>
       <c r="B683" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C683" t="s">
         <v>89</v>
@@ -21633,11 +21528,11 @@
         <v>19</v>
       </c>
       <c r="C684" t="s">
-        <v>307</v>
-      </c>
-      <c r="D684" t="e">
+        <v>89</v>
+      </c>
+      <c r="D684" t="str">
         <f>VLOOKUP(C684,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NOR</v>
       </c>
       <c r="E684">
         <v>1</v>
@@ -21654,17 +21549,17 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B685" t="s">
         <v>18</v>
       </c>
       <c r="C685" t="s">
-        <v>307</v>
-      </c>
-      <c r="D685" t="e">
+        <v>89</v>
+      </c>
+      <c r="D685" t="str">
         <f>VLOOKUP(C685,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>NOR</v>
       </c>
       <c r="E685">
         <v>4</v>
@@ -21876,11 +21771,11 @@
         <v>18</v>
       </c>
       <c r="C693" t="s">
-        <v>304</v>
-      </c>
-      <c r="D693" t="e">
+        <v>71</v>
+      </c>
+      <c r="D693" t="str">
         <f>VLOOKUP(C693,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PAK</v>
       </c>
       <c r="E693">
         <v>1</v>
@@ -21900,10 +21795,10 @@
         <v>2008</v>
       </c>
       <c r="B694" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C694" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D694" t="str">
         <f>VLOOKUP(C694,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -21927,10 +21822,10 @@
         <v>2004</v>
       </c>
       <c r="B695" t="s">
+        <v>213</v>
+      </c>
+      <c r="C695" t="s">
         <v>214</v>
-      </c>
-      <c r="C695" t="s">
-        <v>215</v>
       </c>
       <c r="D695" t="str">
         <f>VLOOKUP(C695,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -22116,7 +22011,7 @@
         <v>1996</v>
       </c>
       <c r="B702" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C702" t="s">
         <v>72</v>
@@ -22143,7 +22038,7 @@
         <v>2016</v>
       </c>
       <c r="B703" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C703" t="s">
         <v>72</v>
@@ -22167,17 +22062,17 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B704" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C704" t="s">
-        <v>350</v>
-      </c>
-      <c r="D704" t="e">
+        <v>72</v>
+      </c>
+      <c r="D704" t="str">
         <f>VLOOKUP(C704,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PHI</v>
       </c>
       <c r="E704">
         <v>1</v>
@@ -22551,11 +22446,11 @@
         <v>8</v>
       </c>
       <c r="C718" t="s">
-        <v>270</v>
-      </c>
-      <c r="D718" t="e">
+        <v>43</v>
+      </c>
+      <c r="D718" t="str">
         <f>VLOOKUP(C718,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>POL</v>
       </c>
       <c r="E718">
         <v>4</v>
@@ -22572,17 +22467,17 @@
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B719" t="s">
         <v>16</v>
       </c>
       <c r="C719" t="s">
-        <v>270</v>
-      </c>
-      <c r="D719" t="e">
+        <v>43</v>
+      </c>
+      <c r="D719" t="str">
         <f>VLOOKUP(C719,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>POL</v>
       </c>
       <c r="E719">
         <v>4</v>
@@ -22683,7 +22578,7 @@
         <v>1996</v>
       </c>
       <c r="B723" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C723" t="s">
         <v>111</v>
@@ -22710,7 +22605,7 @@
         <v>2000</v>
       </c>
       <c r="B724" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C724" t="s">
         <v>111</v>
@@ -22737,7 +22632,7 @@
         <v>2004</v>
       </c>
       <c r="B725" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C725" t="s">
         <v>111</v>
@@ -22764,7 +22659,7 @@
         <v>2008</v>
       </c>
       <c r="B726" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C726" t="s">
         <v>111</v>
@@ -22791,7 +22686,7 @@
         <v>2012</v>
       </c>
       <c r="B727" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C727" t="s">
         <v>111</v>
@@ -22818,7 +22713,7 @@
         <v>2016</v>
       </c>
       <c r="B728" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C728" t="s">
         <v>111</v>
@@ -22848,11 +22743,11 @@
         <v>26</v>
       </c>
       <c r="C729" t="s">
-        <v>319</v>
-      </c>
-      <c r="D729" t="e">
+        <v>111</v>
+      </c>
+      <c r="D729" t="str">
         <f>VLOOKUP(C729,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>POR</v>
       </c>
       <c r="E729">
         <v>0</v>
@@ -22869,17 +22764,17 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B730" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C730" t="s">
-        <v>319</v>
-      </c>
-      <c r="D730" t="e">
+        <v>111</v>
+      </c>
+      <c r="D730" t="str">
         <f>VLOOKUP(C730,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>POR</v>
       </c>
       <c r="E730">
         <v>1</v>
@@ -22980,7 +22875,7 @@
         <v>1996</v>
       </c>
       <c r="B734" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C734" t="s">
         <v>114</v>
@@ -23007,7 +22902,7 @@
         <v>2012</v>
       </c>
       <c r="B735" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C735" t="s">
         <v>114</v>
@@ -23058,17 +22953,17 @@
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B737" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C737" t="s">
-        <v>359</v>
-      </c>
-      <c r="D737" t="e">
+        <v>114</v>
+      </c>
+      <c r="D737" t="str">
         <f>VLOOKUP(C737,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PUR</v>
       </c>
       <c r="E737">
         <v>1</v>
@@ -23115,7 +23010,7 @@
         <v>2000</v>
       </c>
       <c r="B739" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C739" t="s">
         <v>166</v>
@@ -23142,7 +23037,7 @@
         <v>2012</v>
       </c>
       <c r="B740" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C740" t="s">
         <v>166</v>
@@ -23169,7 +23064,7 @@
         <v>2016</v>
       </c>
       <c r="B741" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C741" t="s">
         <v>166</v>
@@ -23193,17 +23088,17 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B742" t="s">
         <v>28</v>
       </c>
       <c r="C742" t="s">
-        <v>344</v>
-      </c>
-      <c r="D742" t="e">
+        <v>166</v>
+      </c>
+      <c r="D742" t="str">
         <f>VLOOKUP(C742,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>QAT</v>
       </c>
       <c r="E742">
         <v>2</v>
@@ -23220,17 +23115,16 @@
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B743" t="s">
         <v>4</v>
       </c>
       <c r="C743" t="s">
-        <v>327</v>
-      </c>
-      <c r="D743" t="e">
-        <f>VLOOKUP(C743,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>271</v>
+      </c>
+      <c r="D743" t="s">
+        <v>286</v>
       </c>
       <c r="E743">
         <v>20</v>
@@ -23601,7 +23495,7 @@
         <v>2016</v>
       </c>
       <c r="B757" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C757" t="s">
         <v>50</v>
@@ -23631,11 +23525,11 @@
         <v>10</v>
       </c>
       <c r="C758" t="s">
-        <v>272</v>
-      </c>
-      <c r="D758" t="e">
+        <v>50</v>
+      </c>
+      <c r="D758" t="str">
         <f>VLOOKUP(C758,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ROU</v>
       </c>
       <c r="E758">
         <v>3</v>
@@ -23652,17 +23546,17 @@
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B759" t="s">
         <v>145</v>
       </c>
       <c r="C759" t="s">
-        <v>272</v>
-      </c>
-      <c r="D759" t="e">
+        <v>50</v>
+      </c>
+      <c r="D759" t="str">
         <f>VLOOKUP(C759,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ROU</v>
       </c>
       <c r="E759">
         <v>1</v>
@@ -23844,10 +23738,10 @@
         <v>2008</v>
       </c>
       <c r="B766" t="s">
+        <v>223</v>
+      </c>
+      <c r="C766" t="s">
         <v>224</v>
-      </c>
-      <c r="C766" t="s">
-        <v>225</v>
       </c>
       <c r="D766" t="str">
         <f>VLOOKUP(C766,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -23868,17 +23762,16 @@
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B767" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C767" t="s">
-        <v>297</v>
-      </c>
-      <c r="D767" t="e">
-        <f>VLOOKUP(C767,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>266</v>
+      </c>
+      <c r="D767" t="s">
+        <v>285</v>
       </c>
       <c r="E767">
         <v>0</v>
@@ -23898,10 +23791,10 @@
         <v>2000</v>
       </c>
       <c r="B768" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C768" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D768" t="str">
         <f>VLOOKUP(C768,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -23925,10 +23818,10 @@
         <v>2012</v>
       </c>
       <c r="B769" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C769" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D769" t="str">
         <f>VLOOKUP(C769,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -23949,17 +23842,17 @@
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B770" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C770" t="s">
-        <v>364</v>
-      </c>
-      <c r="D770" t="e">
+        <v>197</v>
+      </c>
+      <c r="D770" t="str">
         <f>VLOOKUP(C770,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>KSA</v>
       </c>
       <c r="E770">
         <v>0</v>
@@ -24006,10 +23899,10 @@
         <v>2008</v>
       </c>
       <c r="B772" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C772" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D772" t="str">
         <f>VLOOKUP(C772,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24036,7 +23929,7 @@
         <v>99</v>
       </c>
       <c r="C773" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D773" t="str">
         <f>VLOOKUP(C773,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24063,7 +23956,7 @@
         <v>26</v>
       </c>
       <c r="C774" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D774" t="str">
         <f>VLOOKUP(C774,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24087,14 +23980,13 @@
         <v>2004</v>
       </c>
       <c r="B775" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C775" t="s">
-        <v>212</v>
-      </c>
-      <c r="D775" t="e">
-        <f>VLOOKUP(C775,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>211</v>
+      </c>
+      <c r="D775" t="s">
+        <v>292</v>
       </c>
       <c r="E775">
         <v>0</v>
@@ -24111,17 +24003,17 @@
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B776" t="s">
         <v>24</v>
       </c>
       <c r="C776" t="s">
-        <v>335</v>
-      </c>
-      <c r="D776" t="e">
+        <v>221</v>
+      </c>
+      <c r="D776" t="str">
         <f>VLOOKUP(C776,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SRB</v>
       </c>
       <c r="E776">
         <v>3</v>
@@ -24141,10 +24033,10 @@
         <v>2008</v>
       </c>
       <c r="B777" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C777" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D777" t="str">
         <f>VLOOKUP(C777,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24168,10 +24060,10 @@
         <v>2012</v>
       </c>
       <c r="B778" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C778" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D778" t="str">
         <f>VLOOKUP(C778,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24198,7 +24090,7 @@
         <v>164</v>
       </c>
       <c r="C779" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D779" t="str">
         <f>VLOOKUP(C779,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24225,11 +24117,11 @@
         <v>26</v>
       </c>
       <c r="C780" t="s">
-        <v>320</v>
-      </c>
-      <c r="D780" t="e">
+        <v>225</v>
+      </c>
+      <c r="D780" t="str">
         <f>VLOOKUP(C780,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SGP</v>
       </c>
       <c r="E780">
         <v>0</v>
@@ -24252,7 +24144,7 @@
         <v>106</v>
       </c>
       <c r="C781" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D781" t="str">
         <f>VLOOKUP(C781,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24279,7 +24171,7 @@
         <v>27</v>
       </c>
       <c r="C782" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D782" t="str">
         <f>VLOOKUP(C782,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24306,7 +24198,7 @@
         <v>67</v>
       </c>
       <c r="C783" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D783" t="str">
         <f>VLOOKUP(C783,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24333,7 +24225,7 @@
         <v>22</v>
       </c>
       <c r="C784" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D784" t="str">
         <f>VLOOKUP(C784,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24357,10 +24249,10 @@
         <v>2012</v>
       </c>
       <c r="B785" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C785" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D785" t="str">
         <f>VLOOKUP(C785,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24387,7 +24279,7 @@
         <v>112</v>
       </c>
       <c r="C786" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D786" t="str">
         <f>VLOOKUP(C786,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -24408,17 +24300,17 @@
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B787" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C787" t="s">
-        <v>351</v>
-      </c>
-      <c r="D787" t="e">
+        <v>173</v>
+      </c>
+      <c r="D787" t="str">
         <f>VLOOKUP(C787,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SVK</v>
       </c>
       <c r="E787">
         <v>1</v>
@@ -24465,7 +24357,7 @@
         <v>1996</v>
       </c>
       <c r="B789" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C789" t="s">
         <v>163</v>
@@ -24519,7 +24411,7 @@
         <v>2004</v>
       </c>
       <c r="B791" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C791" t="s">
         <v>163</v>
@@ -24600,7 +24492,7 @@
         <v>2016</v>
       </c>
       <c r="B794" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C794" t="s">
         <v>163</v>
@@ -24624,17 +24516,17 @@
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B795" t="s">
         <v>91</v>
       </c>
       <c r="C795" t="s">
-        <v>336</v>
-      </c>
-      <c r="D795" t="e">
+        <v>163</v>
+      </c>
+      <c r="D795" t="str">
         <f>VLOOKUP(C795,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SLO</v>
       </c>
       <c r="E795">
         <v>3</v>
@@ -24708,7 +24600,7 @@
         <v>2000</v>
       </c>
       <c r="B798" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C798" t="s">
         <v>156</v>
@@ -24762,7 +24654,7 @@
         <v>2008</v>
       </c>
       <c r="B800" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C800" t="s">
         <v>156</v>
@@ -24846,11 +24738,11 @@
         <v>24</v>
       </c>
       <c r="C803" t="s">
-        <v>313</v>
-      </c>
-      <c r="D803" t="e">
+        <v>156</v>
+      </c>
+      <c r="D803" t="str">
         <f>VLOOKUP(C803,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>RSA</v>
       </c>
       <c r="E803">
         <v>0</v>
@@ -24867,17 +24759,17 @@
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B804" t="s">
         <v>162</v>
       </c>
       <c r="C804" t="s">
-        <v>313</v>
-      </c>
-      <c r="D804" t="e">
+        <v>156</v>
+      </c>
+      <c r="D804" t="str">
         <f>VLOOKUP(C804,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>RSA</v>
       </c>
       <c r="E804">
         <v>1</v>
@@ -25218,17 +25110,17 @@
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B817" t="s">
         <v>15</v>
       </c>
       <c r="C817" t="s">
-        <v>330</v>
-      </c>
-      <c r="D817" t="e">
+        <v>65</v>
+      </c>
+      <c r="D817" t="str">
         <f>VLOOKUP(C817,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>KOR</v>
       </c>
       <c r="E817">
         <v>6</v>
@@ -25280,9 +25172,9 @@
       <c r="C819" t="s">
         <v>38</v>
       </c>
-      <c r="D819" t="e">
-        <f>VLOOKUP(C819,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D819" t="str">
+        <f>VLOOKUP(C819,'[1]Codes still in use_edit_'!$B:$C,2,FALSE)</f>
+        <v>URS</v>
       </c>
       <c r="E819">
         <v>30</v>
@@ -25307,9 +25199,9 @@
       <c r="C820" t="s">
         <v>38</v>
       </c>
-      <c r="D820" t="e">
-        <f>VLOOKUP(C820,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D820" t="str">
+        <f>VLOOKUP(C820,'[1]Codes still in use_edit_'!$B:$C,2,FALSE)</f>
+        <v>URS</v>
       </c>
       <c r="E820">
         <v>29</v>
@@ -25334,9 +25226,9 @@
       <c r="C821" t="s">
         <v>38</v>
       </c>
-      <c r="D821" t="e">
-        <f>VLOOKUP(C821,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D821" t="str">
+        <f>VLOOKUP(C821,'[1]Codes still in use_edit_'!$B:$C,2,FALSE)</f>
+        <v>URS</v>
       </c>
       <c r="E821">
         <v>50</v>
@@ -25361,9 +25253,9 @@
       <c r="C822" t="s">
         <v>38</v>
       </c>
-      <c r="D822" t="e">
-        <f>VLOOKUP(C822,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D822" t="str">
+        <f>VLOOKUP(C822,'[1]Codes still in use_edit_'!$B:$C,2,FALSE)</f>
+        <v>URS</v>
       </c>
       <c r="E822">
         <v>49</v>
@@ -25388,9 +25280,9 @@
       <c r="C823" t="s">
         <v>38</v>
       </c>
-      <c r="D823" t="e">
-        <f>VLOOKUP(C823,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D823" t="str">
+        <f>VLOOKUP(C823,'[1]Codes still in use_edit_'!$B:$C,2,FALSE)</f>
+        <v>URS</v>
       </c>
       <c r="E823">
         <v>55</v>
@@ -25413,11 +25305,11 @@
         <v>0</v>
       </c>
       <c r="C824" t="s">
-        <v>263</v>
-      </c>
-      <c r="D824" t="e">
-        <f>VLOOKUP(C824,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>38</v>
+      </c>
+      <c r="D824" t="str">
+        <f>VLOOKUP(C824,'[1]Codes still in use_edit_'!$B:$C,2,FALSE)</f>
+        <v>URS</v>
       </c>
       <c r="E824">
         <v>43</v>
@@ -25442,9 +25334,9 @@
       <c r="C825" t="s">
         <v>117</v>
       </c>
-      <c r="D825" t="e">
-        <f>VLOOKUP(C825,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D825" t="str">
+        <f>VLOOKUP(C825,'[1]Codes still in use_edit_'!$B:$C,2,FALSE)</f>
+        <v>URS</v>
       </c>
       <c r="E825">
         <v>80</v>
@@ -25764,11 +25656,11 @@
         <v>28</v>
       </c>
       <c r="C837" t="s">
-        <v>324</v>
-      </c>
-      <c r="D837" t="e">
+        <v>108</v>
+      </c>
+      <c r="D837" t="str">
         <f>VLOOKUP(C837,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ESP</v>
       </c>
       <c r="E837">
         <v>0</v>
@@ -25785,17 +25677,17 @@
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B838" t="s">
         <v>59</v>
       </c>
       <c r="C838" t="s">
-        <v>324</v>
-      </c>
-      <c r="D838" t="e">
+        <v>108</v>
+      </c>
+      <c r="D838" t="str">
         <f>VLOOKUP(C838,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>ESP</v>
       </c>
       <c r="E838">
         <v>3</v>
@@ -25842,10 +25734,10 @@
         <v>2000</v>
       </c>
       <c r="B840" t="s">
+        <v>198</v>
+      </c>
+      <c r="C840" t="s">
         <v>199</v>
-      </c>
-      <c r="C840" t="s">
-        <v>200</v>
       </c>
       <c r="D840" t="str">
         <f>VLOOKUP(C840,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -25869,10 +25761,10 @@
         <v>2008</v>
       </c>
       <c r="B841" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C841" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D841" t="str">
         <f>VLOOKUP(C841,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -26247,7 +26139,7 @@
         <v>2008</v>
       </c>
       <c r="B855" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C855" t="s">
         <v>53</v>
@@ -26331,11 +26223,11 @@
         <v>15</v>
       </c>
       <c r="C858" t="s">
-        <v>277</v>
-      </c>
-      <c r="D858" t="e">
+        <v>53</v>
+      </c>
+      <c r="D858" t="str">
         <f>VLOOKUP(C858,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SWE</v>
       </c>
       <c r="E858">
         <v>1</v>
@@ -26352,17 +26244,17 @@
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B859" t="s">
         <v>88</v>
       </c>
       <c r="C859" t="s">
-        <v>277</v>
-      </c>
-      <c r="D859" t="e">
+        <v>53</v>
+      </c>
+      <c r="D859" t="str">
         <f>VLOOKUP(C859,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SWE</v>
       </c>
       <c r="E859">
         <v>3</v>
@@ -26763,11 +26655,11 @@
         <v>20</v>
       </c>
       <c r="C874" t="s">
-        <v>308</v>
-      </c>
-      <c r="D874" t="e">
+        <v>61</v>
+      </c>
+      <c r="D874" t="str">
         <f>VLOOKUP(C874,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SUI</v>
       </c>
       <c r="E874">
         <v>0</v>
@@ -26784,17 +26676,17 @@
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B875" t="s">
         <v>20</v>
       </c>
       <c r="C875" t="s">
-        <v>308</v>
-      </c>
-      <c r="D875" t="e">
+        <v>61</v>
+      </c>
+      <c r="D875" t="str">
         <f>VLOOKUP(C875,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SUI</v>
       </c>
       <c r="E875">
         <v>3</v>
@@ -26868,7 +26760,7 @@
         <v>2004</v>
       </c>
       <c r="B878" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C878" t="s">
         <v>128</v>
@@ -26892,17 +26784,17 @@
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B879" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C879" t="s">
-        <v>279</v>
-      </c>
-      <c r="D879" t="e">
+        <v>128</v>
+      </c>
+      <c r="D879" t="str">
         <f>VLOOKUP(C879,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>SYR</v>
       </c>
       <c r="E879">
         <v>0</v>
@@ -26927,9 +26819,8 @@
       <c r="C880" t="s">
         <v>101</v>
       </c>
-      <c r="D880" t="e">
-        <f>VLOOKUP(C880,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D880" t="s">
+        <v>296</v>
       </c>
       <c r="E880">
         <v>0</v>
@@ -26949,10 +26840,10 @@
         <v>2008</v>
       </c>
       <c r="B881" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C881" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D881" t="str">
         <f>VLOOKUP(C881,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -26976,10 +26867,10 @@
         <v>2012</v>
       </c>
       <c r="B882" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C882" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D882" t="str">
         <f>VLOOKUP(C882,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -27006,7 +26897,7 @@
         <v>164</v>
       </c>
       <c r="C883" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D883" t="str">
         <f>VLOOKUP(C883,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -27165,7 +27056,7 @@
         <v>1996</v>
       </c>
       <c r="B889" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C889" t="s">
         <v>115</v>
@@ -27192,7 +27083,7 @@
         <v>2000</v>
       </c>
       <c r="B890" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C890" t="s">
         <v>115</v>
@@ -27273,7 +27164,7 @@
         <v>2012</v>
       </c>
       <c r="B893" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C893" t="s">
         <v>115</v>
@@ -27324,17 +27215,17 @@
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B895" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C895" t="s">
-        <v>357</v>
-      </c>
-      <c r="D895" t="e">
+        <v>115</v>
+      </c>
+      <c r="D895" t="str">
         <f>VLOOKUP(C895,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>THA</v>
       </c>
       <c r="E895">
         <v>1</v>
@@ -27354,10 +27245,10 @@
         <v>2008</v>
       </c>
       <c r="B896" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C896" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D896" t="str">
         <f>VLOOKUP(C896,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -27381,10 +27272,10 @@
         <v>1996</v>
       </c>
       <c r="B897" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C897" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D897" t="str">
         <f>VLOOKUP(C897,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -27462,7 +27353,7 @@
         <v>1996</v>
       </c>
       <c r="B900" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C900" t="s">
         <v>66</v>
@@ -27489,7 +27380,7 @@
         <v>2000</v>
       </c>
       <c r="B901" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C901" t="s">
         <v>66</v>
@@ -27516,7 +27407,7 @@
         <v>2004</v>
       </c>
       <c r="B902" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C902" t="s">
         <v>66</v>
@@ -27543,7 +27434,7 @@
         <v>2008</v>
       </c>
       <c r="B903" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C903" t="s">
         <v>66</v>
@@ -27597,7 +27488,7 @@
         <v>2016</v>
       </c>
       <c r="B905" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C905" t="s">
         <v>66</v>
@@ -27705,7 +27596,7 @@
         <v>1996</v>
       </c>
       <c r="B909" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C909" t="s">
         <v>68</v>
@@ -27732,7 +27623,7 @@
         <v>2008</v>
       </c>
       <c r="B910" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C910" t="s">
         <v>68</v>
@@ -27786,7 +27677,7 @@
         <v>2016</v>
       </c>
       <c r="B912" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C912" t="s">
         <v>68</v>
@@ -27810,17 +27701,17 @@
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B913" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C913" t="s">
-        <v>353</v>
-      </c>
-      <c r="D913" t="e">
+        <v>68</v>
+      </c>
+      <c r="D913" t="str">
         <f>VLOOKUP(C913,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>TUN</v>
       </c>
       <c r="E913">
         <v>1</v>
@@ -28167,11 +28058,11 @@
         <v>5</v>
       </c>
       <c r="C926" t="s">
-        <v>301</v>
-      </c>
-      <c r="D926" t="e">
+        <v>52</v>
+      </c>
+      <c r="D926" t="str">
         <f>VLOOKUP(C926,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>TUR</v>
       </c>
       <c r="E926">
         <v>7</v>
@@ -28188,17 +28079,17 @@
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B927" t="s">
         <v>75</v>
       </c>
       <c r="C927" t="s">
-        <v>301</v>
-      </c>
-      <c r="D927" t="e">
+        <v>52</v>
+      </c>
+      <c r="D927" t="str">
         <f>VLOOKUP(C927,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>TUR</v>
       </c>
       <c r="E927">
         <v>2</v>
@@ -28215,17 +28106,16 @@
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B928" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C928" t="s">
-        <v>289</v>
-      </c>
-      <c r="D928" t="e">
-        <f>VLOOKUP(C928,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>264</v>
+      </c>
+      <c r="D928" t="s">
+        <v>284</v>
       </c>
       <c r="E928">
         <v>0</v>
@@ -28326,7 +28216,7 @@
         <v>1996</v>
       </c>
       <c r="B932" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C932" t="s">
         <v>96</v>
@@ -28353,7 +28243,7 @@
         <v>2012</v>
       </c>
       <c r="B933" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C933" t="s">
         <v>96</v>
@@ -28377,17 +28267,17 @@
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B934" t="s">
         <v>95</v>
       </c>
       <c r="C934" t="s">
-        <v>340</v>
-      </c>
-      <c r="D934" t="e">
+        <v>96</v>
+      </c>
+      <c r="D934" t="str">
         <f>VLOOKUP(C934,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>UGA</v>
       </c>
       <c r="E934">
         <v>2</v>
@@ -28566,17 +28456,17 @@
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B941" t="s">
         <v>144</v>
       </c>
       <c r="C941" t="s">
-        <v>347</v>
-      </c>
-      <c r="D941" t="e">
+        <v>169</v>
+      </c>
+      <c r="D941" t="str">
         <f>VLOOKUP(C941,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>UKR</v>
       </c>
       <c r="E941">
         <v>1</v>
@@ -28601,9 +28491,8 @@
       <c r="C942" t="s">
         <v>148</v>
       </c>
-      <c r="D942" t="e">
-        <f>VLOOKUP(C942,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D942" t="s">
+        <v>283</v>
       </c>
       <c r="E942">
         <v>45</v>
@@ -28626,7 +28515,7 @@
         <v>164</v>
       </c>
       <c r="C943" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D943" t="str">
         <f>VLOOKUP(C943,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -28650,10 +28539,10 @@
         <v>2016</v>
       </c>
       <c r="B944" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C944" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D944" t="str">
         <f>VLOOKUP(C944,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -28977,11 +28866,11 @@
         <v>1</v>
       </c>
       <c r="C956" t="s">
-        <v>264</v>
-      </c>
-      <c r="D956" t="e">
+        <v>37</v>
+      </c>
+      <c r="D956" t="str">
         <f>VLOOKUP(C956,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>USA</v>
       </c>
       <c r="E956">
         <v>34</v>
@@ -28998,17 +28887,17 @@
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B957" t="s">
         <v>0</v>
       </c>
       <c r="C957" t="s">
-        <v>264</v>
-      </c>
-      <c r="D957" t="e">
+        <v>37</v>
+      </c>
+      <c r="D957" t="str">
         <f>VLOOKUP(C957,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>USA</v>
       </c>
       <c r="E957">
         <v>39</v>
@@ -29087,9 +28976,8 @@
       <c r="C960" t="s">
         <v>40</v>
       </c>
-      <c r="D960" t="e">
-        <f>VLOOKUP(C960,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D960" t="s">
+        <v>282</v>
       </c>
       <c r="E960">
         <v>10</v>
@@ -29112,11 +29000,10 @@
         <v>3</v>
       </c>
       <c r="C961" t="s">
-        <v>266</v>
-      </c>
-      <c r="D961" t="e">
-        <f>VLOOKUP(C961,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>261</v>
+      </c>
+      <c r="D961" t="s">
+        <v>282</v>
       </c>
       <c r="E961">
         <v>12</v>
@@ -29163,7 +29050,7 @@
         <v>2000</v>
       </c>
       <c r="B963" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C963" t="s">
         <v>82</v>
@@ -29190,10 +29077,10 @@
         <v>1996</v>
       </c>
       <c r="B964" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C964" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D964" t="str">
         <f>VLOOKUP(C964,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29220,7 +29107,7 @@
         <v>106</v>
       </c>
       <c r="C965" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D965" t="str">
         <f>VLOOKUP(C965,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29247,7 +29134,7 @@
         <v>75</v>
       </c>
       <c r="C966" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D966" t="str">
         <f>VLOOKUP(C966,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29271,10 +29158,10 @@
         <v>2008</v>
       </c>
       <c r="B967" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C967" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D967" t="str">
         <f>VLOOKUP(C967,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29298,10 +29185,10 @@
         <v>2012</v>
       </c>
       <c r="B968" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C968" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D968" t="str">
         <f>VLOOKUP(C968,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29328,7 +29215,7 @@
         <v>19</v>
       </c>
       <c r="C969" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D969" t="str">
         <f>VLOOKUP(C969,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29349,17 +29236,17 @@
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B970" t="s">
         <v>26</v>
       </c>
       <c r="C970" t="s">
-        <v>337</v>
-      </c>
-      <c r="D970" t="e">
+        <v>184</v>
+      </c>
+      <c r="D970" t="str">
         <f>VLOOKUP(C970,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>UZB</v>
       </c>
       <c r="E970">
         <v>3</v>
@@ -29487,7 +29374,7 @@
         <v>2004</v>
       </c>
       <c r="B975" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C975" t="s">
         <v>90</v>
@@ -29514,7 +29401,7 @@
         <v>2008</v>
       </c>
       <c r="B976" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C976" t="s">
         <v>90</v>
@@ -29541,7 +29428,7 @@
         <v>2012</v>
       </c>
       <c r="B977" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C977" t="s">
         <v>90</v>
@@ -29568,7 +29455,7 @@
         <v>2016</v>
       </c>
       <c r="B978" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C978" t="s">
         <v>90</v>
@@ -29598,11 +29485,11 @@
         <v>28</v>
       </c>
       <c r="C979" t="s">
-        <v>325</v>
-      </c>
-      <c r="D979" t="e">
+        <v>90</v>
+      </c>
+      <c r="D979" t="str">
         <f>VLOOKUP(C979,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>VEN</v>
       </c>
       <c r="E979">
         <v>0</v>
@@ -29619,17 +29506,17 @@
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B980" t="s">
         <v>145</v>
       </c>
       <c r="C980" t="s">
-        <v>325</v>
-      </c>
-      <c r="D980" t="e">
+        <v>90</v>
+      </c>
+      <c r="D980" t="str">
         <f>VLOOKUP(C980,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>VEN</v>
       </c>
       <c r="E980">
         <v>1</v>
@@ -29649,10 +29536,10 @@
         <v>2000</v>
       </c>
       <c r="B981" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C981" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D981" t="str">
         <f>VLOOKUP(C981,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29676,10 +29563,10 @@
         <v>2008</v>
       </c>
       <c r="B982" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C982" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D982" t="str">
         <f>VLOOKUP(C982,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29703,10 +29590,10 @@
         <v>2012</v>
       </c>
       <c r="B983" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C983" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D983" t="str">
         <f>VLOOKUP(C983,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29733,7 +29620,7 @@
         <v>159</v>
       </c>
       <c r="C984" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D984" t="str">
         <f>VLOOKUP(C984,'[1]Current NOC'!$B:$C,2,FALSE)</f>
@@ -29789,9 +29676,8 @@
       <c r="C986" t="s">
         <v>86</v>
       </c>
-      <c r="D986" t="e">
-        <f>VLOOKUP(C986,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D986" t="s">
+        <v>281</v>
       </c>
       <c r="E986">
         <v>5</v>
@@ -29816,9 +29702,8 @@
       <c r="C987" t="s">
         <v>86</v>
       </c>
-      <c r="D987" t="e">
-        <f>VLOOKUP(C987,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D987" t="s">
+        <v>281</v>
       </c>
       <c r="E987">
         <v>10</v>
@@ -29843,9 +29728,8 @@
       <c r="C988" t="s">
         <v>86</v>
       </c>
-      <c r="D988" t="e">
-        <f>VLOOKUP(C988,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D988" t="s">
+        <v>281</v>
       </c>
       <c r="E988">
         <v>17</v>
@@ -29870,9 +29754,8 @@
       <c r="C989" t="s">
         <v>86</v>
       </c>
-      <c r="D989" t="e">
-        <f>VLOOKUP(C989,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D989" t="s">
+        <v>281</v>
       </c>
       <c r="E989">
         <v>11</v>
@@ -29897,9 +29780,8 @@
       <c r="C990" t="s">
         <v>102</v>
       </c>
-      <c r="D990" t="e">
-        <f>VLOOKUP(C990,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D990" t="s">
+        <v>281</v>
       </c>
       <c r="E990">
         <v>13</v>
@@ -29924,9 +29806,8 @@
       <c r="C991" t="s">
         <v>56</v>
       </c>
-      <c r="D991" t="e">
-        <f>VLOOKUP(C991,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D991" t="s">
+        <v>280</v>
       </c>
       <c r="E991">
         <v>2</v>
@@ -29951,9 +29832,8 @@
       <c r="C992" t="s">
         <v>56</v>
       </c>
-      <c r="D992" t="e">
-        <f>VLOOKUP(C992,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D992" t="s">
+        <v>280</v>
       </c>
       <c r="E992">
         <v>3</v>
@@ -29978,9 +29858,8 @@
       <c r="C993" t="s">
         <v>56</v>
       </c>
-      <c r="D993" t="e">
-        <f>VLOOKUP(C993,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D993" t="s">
+        <v>280</v>
       </c>
       <c r="E993">
         <v>2</v>
@@ -30005,9 +29884,8 @@
       <c r="C994" t="s">
         <v>56</v>
       </c>
-      <c r="D994" t="e">
-        <f>VLOOKUP(C994,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D994" t="s">
+        <v>280</v>
       </c>
       <c r="E994">
         <v>2</v>
@@ -30032,9 +29910,8 @@
       <c r="C995" t="s">
         <v>56</v>
       </c>
-      <c r="D995" t="e">
-        <f>VLOOKUP(C995,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D995" t="s">
+        <v>280</v>
       </c>
       <c r="E995">
         <v>2</v>
@@ -30059,9 +29936,8 @@
       <c r="C996" t="s">
         <v>56</v>
       </c>
-      <c r="D996" t="e">
-        <f>VLOOKUP(C996,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D996" t="s">
+        <v>280</v>
       </c>
       <c r="E996">
         <v>7</v>
@@ -30086,9 +29962,8 @@
       <c r="C997" t="s">
         <v>56</v>
       </c>
-      <c r="D997" t="e">
-        <f>VLOOKUP(C997,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D997" t="s">
+        <v>280</v>
       </c>
       <c r="E997">
         <v>3</v>
@@ -30111,11 +29986,10 @@
         <v>17</v>
       </c>
       <c r="C998" t="s">
-        <v>303</v>
-      </c>
-      <c r="D998" t="e">
-        <f>VLOOKUP(C998,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>267</v>
+      </c>
+      <c r="D998" t="s">
+        <v>280</v>
       </c>
       <c r="E998">
         <v>1</v>
@@ -30162,7 +30036,7 @@
         <v>1996</v>
       </c>
       <c r="B1000" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1000" t="s">
         <v>134</v>
@@ -30500,10 +30374,10 @@
         <v>1996</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>271</v>
@@ -30523,10 +30397,10 @@
         <v>2000</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11">
         <v>300</v>
@@ -30546,10 +30420,10 @@
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12">
         <v>301</v>
@@ -30569,10 +30443,10 @@
         <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13">
         <v>302</v>
@@ -30592,10 +30466,10 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14">
         <v>303</v>
@@ -30615,10 +30489,10 @@
         <v>2016</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15">
         <v>307</v>
@@ -30635,13 +30509,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D16">
         <v>340</v>
